--- a/Assets/TableDataImporter/Tests/example.xlsx
+++ b/Assets/TableDataImporter/Tests/example.xlsx
@@ -168,7 +168,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">

--- a/Assets/TableDataImporter/Tests/example.xlsx
+++ b/Assets/TableDataImporter/Tests/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t xml:space="preserve">[BNpc]</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">slime</t>
   </si>
   <si>
+    <t xml:space="preserve">Bubbly Slime</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slime</t>
   </si>
   <si>
@@ -53,6 +56,24 @@
   </si>
   <si>
     <t xml:space="preserve">Goblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Humanoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[AI]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goblin Punch</t>
   </si>
 </sst>
 </file>
@@ -91,7 +112,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="128"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,18 +183,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D6"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -185,6 +207,9 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -196,6 +221,9 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
@@ -204,19 +232,72 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
